--- a/Overdoseage.xlsx
+++ b/Overdoseage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiffa\Desktop\Data Sci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F3C8A-0C15-4914-8E30-4ABD8372E8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B49DD6B-E293-4122-9782-C02A25618667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14400" windowHeight="7335" xr2:uid="{56FAA11B-5A59-4D90-9347-1F6242DEADFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{56FAA11B-5A59-4D90-9347-1F6242DEADFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,28 +63,28 @@
     <t>Age</t>
   </si>
   <si>
-    <t>All2017</t>
-  </si>
-  <si>
-    <t>All2018</t>
-  </si>
-  <si>
-    <t>Prescription2017</t>
-  </si>
-  <si>
-    <t>Prescription2018</t>
-  </si>
-  <si>
-    <t>Heroin2017</t>
-  </si>
-  <si>
-    <t>Heroin2018</t>
-  </si>
-  <si>
-    <t>Synthetic2017</t>
-  </si>
-  <si>
-    <t>Synthetic2018</t>
+    <t>All Opioid Mortalities 2017 by Age Group</t>
+  </si>
+  <si>
+    <t>All Opioid Mortalities 2018 by Age Group</t>
+  </si>
+  <si>
+    <t>Prescription Opioid Mortalities 2017 by Age Group</t>
+  </si>
+  <si>
+    <t>Prescription Opioid Mortalities 2018 by Age Group</t>
+  </si>
+  <si>
+    <t>Heroin Mortalities 2017 by Age Group</t>
+  </si>
+  <si>
+    <t>Heroin Mortalities 2018 by Age Group</t>
+  </si>
+  <si>
+    <t>Synthetic Opioid Mortalities 2017 by Age Group</t>
+  </si>
+  <si>
+    <t>Synthetic Opioid Mortalities 2018 by Age Group</t>
   </si>
 </sst>
 </file>
@@ -439,12 +439,20 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/Overdoseage.xlsx
+++ b/Overdoseage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiffa\Desktop\Data Sci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B49DD6B-E293-4122-9782-C02A25618667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5056AA14-7843-405E-9DE3-DD3E88B521BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{56FAA11B-5A59-4D90-9347-1F6242DEADFC}"/>
   </bookViews>
@@ -63,28 +63,28 @@
     <t>Age</t>
   </si>
   <si>
-    <t>All Opioid Mortalities 2017 by Age Group</t>
-  </si>
-  <si>
-    <t>All Opioid Mortalities 2018 by Age Group</t>
-  </si>
-  <si>
-    <t>Prescription Opioid Mortalities 2017 by Age Group</t>
-  </si>
-  <si>
-    <t>Prescription Opioid Mortalities 2018 by Age Group</t>
-  </si>
-  <si>
-    <t>Heroin Mortalities 2017 by Age Group</t>
-  </si>
-  <si>
-    <t>Heroin Mortalities 2018 by Age Group</t>
-  </si>
-  <si>
-    <t>Synthetic Opioid Mortalities 2017 by Age Group</t>
-  </si>
-  <si>
-    <t>Synthetic Opioid Mortalities 2018 by Age Group</t>
+    <t>All.Opioid.Mortalities.2017.by.Age.Group</t>
+  </si>
+  <si>
+    <t>All.Opioid.Mortalities.2018.by.Age.Group</t>
+  </si>
+  <si>
+    <t>Prescription.Opioid.Mortalities.2017.by.Age .Group</t>
+  </si>
+  <si>
+    <t>Prescription.Opioid.Mortalities.2018.by.Age.Group</t>
+  </si>
+  <si>
+    <t>Heroin.Mortalities.2017.by.Age.Group</t>
+  </si>
+  <si>
+    <t>Heroin. Mortalities.2018.by.Age.Group</t>
+  </si>
+  <si>
+    <t>Synthetic.Opioid.Mortalities.2017.by.Age.Group</t>
+  </si>
+  <si>
+    <t>Synthetic.Opioid.Mortalities.2018.by.Age.Group</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95973C10-96D9-4CC8-B190-80D8558EA3C9}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Overdoseage.xlsx
+++ b/Overdoseage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiffa\Desktop\Data Sci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5056AA14-7843-405E-9DE3-DD3E88B521BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F844F11C-B90D-4EB5-90BA-E8852BCD6838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{56FAA11B-5A59-4D90-9347-1F6242DEADFC}"/>
   </bookViews>
@@ -69,22 +69,22 @@
     <t>All.Opioid.Mortalities.2018.by.Age.Group</t>
   </si>
   <si>
-    <t>Prescription.Opioid.Mortalities.2017.by.Age .Group</t>
-  </si>
-  <si>
     <t>Prescription.Opioid.Mortalities.2018.by.Age.Group</t>
   </si>
   <si>
     <t>Heroin.Mortalities.2017.by.Age.Group</t>
   </si>
   <si>
-    <t>Heroin. Mortalities.2018.by.Age.Group</t>
-  </si>
-  <si>
     <t>Synthetic.Opioid.Mortalities.2017.by.Age.Group</t>
   </si>
   <si>
     <t>Synthetic.Opioid.Mortalities.2018.by.Age.Group</t>
+  </si>
+  <si>
+    <t>Prescription.Opioid.Mortalities.2017.by.Age.Group</t>
+  </si>
+  <si>
+    <t>Heroin.Mortalities.2018.by.Age.Group</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95973C10-96D9-4CC8-B190-80D8558EA3C9}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,22 +466,22 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
